--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s7_sa\Documents\HtDP\HtDF_exercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F2765A-DE24-496F-9583-30B8ED853422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8633AF-E221-4015-B69F-DD4CD8B83C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9317" yWindow="0" windowWidth="23246" windowHeight="17014" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="716">
   <si>
     <t>#</t>
   </si>
@@ -2179,6 +2180,9 @@
   </si>
   <si>
     <t>completed on 26.10.</t>
+  </si>
+  <si>
+    <t>completed on 31.10.</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2225,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2237,7 +2241,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2535,19 +2539,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D501-7ECA-49F7-8778-74DA8B793EE3}">
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G132" sqref="G132"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G143" sqref="G143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.61328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.23046875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" style="1" customWidth="1"/>
     <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2567,12 +2571,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2589,12 +2593,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2611,12 +2615,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2633,12 +2637,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2655,12 +2659,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2677,12 +2681,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2699,12 +2703,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2721,12 +2725,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -2743,12 +2747,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2765,12 +2769,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -2787,12 +2791,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2809,12 +2813,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2831,12 +2835,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -2853,12 +2857,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>67</v>
       </c>
@@ -2875,12 +2879,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>71</v>
       </c>
@@ -2897,12 +2901,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -2919,12 +2923,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -2941,12 +2945,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>85</v>
       </c>
@@ -2963,12 +2967,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2985,12 +2989,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>95</v>
       </c>
@@ -3007,12 +3011,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>100</v>
       </c>
@@ -3029,12 +3033,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>105</v>
       </c>
@@ -3051,12 +3055,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -3073,12 +3077,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>113</v>
       </c>
@@ -3095,12 +3099,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>117</v>
       </c>
@@ -3117,12 +3121,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>121</v>
       </c>
@@ -3139,12 +3143,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -3161,12 +3165,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>129</v>
       </c>
@@ -3183,12 +3187,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>133</v>
       </c>
@@ -3205,12 +3209,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>138</v>
       </c>
@@ -3227,12 +3231,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>143</v>
       </c>
@@ -3249,12 +3253,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -3271,12 +3275,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>153</v>
       </c>
@@ -3293,12 +3297,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>158</v>
       </c>
@@ -3315,12 +3319,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -3337,12 +3341,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -3359,12 +3363,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>174</v>
       </c>
@@ -3381,12 +3385,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>179</v>
       </c>
@@ -3403,12 +3407,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>183</v>
       </c>
@@ -3425,12 +3429,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -3447,12 +3451,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>192</v>
       </c>
@@ -3469,12 +3473,12 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>196</v>
       </c>
@@ -3491,12 +3495,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>200</v>
       </c>
@@ -3513,12 +3517,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>204</v>
       </c>
@@ -3535,12 +3539,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>208</v>
       </c>
@@ -3557,12 +3561,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>212</v>
       </c>
@@ -3579,12 +3583,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -3601,12 +3605,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>222</v>
       </c>
@@ -3623,12 +3627,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>227</v>
       </c>
@@ -3645,12 +3649,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>232</v>
       </c>
@@ -3667,12 +3671,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>237</v>
       </c>
@@ -3689,42 +3693,42 @@
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>249</v>
       </c>
@@ -3741,12 +3745,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -3763,12 +3767,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>259</v>
       </c>
@@ -3785,12 +3789,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>263</v>
       </c>
@@ -3807,12 +3811,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>267</v>
       </c>
@@ -3829,12 +3833,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>271</v>
       </c>
@@ -3851,12 +3855,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E122" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>275</v>
       </c>
@@ -3873,12 +3877,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>280</v>
       </c>
@@ -3895,12 +3899,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>284</v>
       </c>
@@ -3917,12 +3921,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>289</v>
       </c>
@@ -3939,12 +3943,12 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E130" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>293</v>
       </c>
@@ -3964,12 +3968,12 @@
         <v>714</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E132" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>298</v>
       </c>
@@ -3985,13 +3989,16 @@
       <c r="F133" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G133" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E134" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>303</v>
       </c>
@@ -4007,13 +4014,16 @@
       <c r="F135" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G135" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E136" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -4029,13 +4039,16 @@
       <c r="F137" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G137" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E138" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>312</v>
       </c>
@@ -4051,13 +4064,16 @@
       <c r="F139" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G139" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E140" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>316</v>
       </c>
@@ -4073,13 +4089,16 @@
       <c r="F141" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G141" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E142" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>320</v>
       </c>
@@ -4095,38 +4114,41 @@
       <c r="F143" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G143" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E144" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E145" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E146" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E147" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E149" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -4143,12 +4165,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E151" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>336</v>
       </c>
@@ -4165,12 +4187,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E153" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>340</v>
       </c>
@@ -4187,12 +4209,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E155" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>345</v>
       </c>
@@ -4209,12 +4231,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>350</v>
       </c>
@@ -4231,12 +4253,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E159" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>355</v>
       </c>
@@ -4253,12 +4275,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E161" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>359</v>
       </c>
@@ -4275,12 +4297,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E163" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>363</v>
       </c>
@@ -4297,12 +4319,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E165" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>367</v>
       </c>
@@ -4319,12 +4341,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E167" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="72.900000000000006" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>371</v>
       </c>
@@ -4341,37 +4363,37 @@
         <v>380</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E169" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E170" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E171" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E172" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E173" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E174" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>381</v>
       </c>
@@ -4388,12 +4410,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E176" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -4410,12 +4432,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E178" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -4432,12 +4454,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E180" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>394</v>
       </c>
@@ -4454,12 +4476,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -4476,12 +4498,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E184" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>403</v>
       </c>
@@ -4498,12 +4520,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E186" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>408</v>
       </c>
@@ -4520,12 +4542,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E188" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>412</v>
       </c>
@@ -4542,12 +4564,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E190" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>416</v>
       </c>
@@ -4564,12 +4586,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E192" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>420</v>
       </c>
@@ -4586,12 +4608,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E194" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>424</v>
       </c>
@@ -4608,12 +4630,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E196" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>428</v>
       </c>
@@ -4630,12 +4652,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E198" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>432</v>
       </c>
@@ -4652,27 +4674,27 @@
         <v>380</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E200" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E201" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E202" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E203" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>439</v>
       </c>
@@ -4689,12 +4711,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E205" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -4711,12 +4733,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E207" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>448</v>
       </c>
@@ -4733,12 +4755,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E209" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -4755,12 +4777,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E211" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>457</v>
       </c>
@@ -4777,12 +4799,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E213" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>461</v>
       </c>
@@ -4799,12 +4821,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E215" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>465</v>
       </c>
@@ -4821,12 +4843,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E217" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>469</v>
       </c>
@@ -4843,12 +4865,12 @@
         <v>456</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E219" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>473</v>
       </c>
@@ -4865,22 +4887,22 @@
         <v>478</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E221" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E222" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E223" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>479</v>
       </c>
@@ -4897,12 +4919,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E225" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>483</v>
       </c>
@@ -4919,12 +4941,12 @@
         <v>487</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E227" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>488</v>
       </c>
@@ -4941,12 +4963,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E229" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>491</v>
       </c>
@@ -4963,12 +4985,12 @@
         <v>495</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>496</v>
       </c>
@@ -4985,12 +5007,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E233" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -5007,17 +5029,17 @@
         <v>506</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E235" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E236" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>507</v>
       </c>
@@ -5034,12 +5056,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E238" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>512</v>
       </c>
@@ -5056,12 +5078,12 @@
         <v>516</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E240" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>517</v>
       </c>
@@ -5078,12 +5100,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E242" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>521</v>
       </c>
@@ -5100,12 +5122,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E244" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>525</v>
       </c>
@@ -5122,12 +5144,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E246" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>530</v>
       </c>
@@ -5144,12 +5166,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E248" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>534</v>
       </c>
@@ -5166,12 +5188,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E250" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>538</v>
       </c>
@@ -5188,12 +5210,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E252" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>542</v>
       </c>
@@ -5210,12 +5232,12 @@
         <v>511</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E254" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>546</v>
       </c>
@@ -5232,12 +5254,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E256" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>551</v>
       </c>
@@ -5254,12 +5276,12 @@
         <v>529</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E258" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>555</v>
       </c>
@@ -5276,17 +5298,17 @@
         <v>511</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E260" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E261" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>560</v>
       </c>
@@ -5303,17 +5325,17 @@
         <v>565</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E263" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E264" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>566</v>
       </c>
@@ -5330,12 +5352,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E266" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>571</v>
       </c>
@@ -5352,12 +5374,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E268" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="131.15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>575</v>
       </c>
@@ -5374,12 +5396,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E270" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>580</v>
       </c>
@@ -5396,12 +5418,12 @@
         <v>570</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E272" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>584</v>
       </c>
@@ -5418,37 +5440,37 @@
         <v>594</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E274" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E275" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E276" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E277" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E278" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E279" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>595</v>
       </c>
@@ -5465,17 +5487,17 @@
         <v>594</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E281" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E282" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>600</v>
       </c>
@@ -5492,22 +5514,22 @@
         <v>594</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E284" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E285" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E286" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>606</v>
       </c>
@@ -5524,22 +5546,22 @@
         <v>594</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E288" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E289" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E290" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>612</v>
       </c>
@@ -5556,12 +5578,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E292" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>617</v>
       </c>
@@ -5578,12 +5600,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E294" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>621</v>
       </c>
@@ -5600,12 +5622,12 @@
         <v>616</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E296" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>625</v>
       </c>
@@ -5622,12 +5644,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E298" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>630</v>
       </c>
@@ -5644,12 +5666,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E300" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>634</v>
       </c>
@@ -5666,12 +5688,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E302" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="303" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>638</v>
       </c>
@@ -5688,12 +5710,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E304" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>642</v>
       </c>
@@ -5710,12 +5732,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E306" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>646</v>
       </c>
@@ -5732,12 +5754,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E308" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>650</v>
       </c>
@@ -5754,12 +5776,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E310" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>654</v>
       </c>
@@ -5776,12 +5798,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E312" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>659</v>
       </c>
@@ -5798,12 +5820,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E314" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>663</v>
       </c>
@@ -5820,32 +5842,32 @@
         <v>616</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E316" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E317" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E318" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E319" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E320" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>671</v>
       </c>
@@ -5862,12 +5884,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>675</v>
       </c>
@@ -5884,42 +5906,42 @@
         <v>658</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E324" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E325" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E326" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E327" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E328" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E329" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E330" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>685</v>
       </c>
@@ -5936,12 +5958,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>690</v>
       </c>
@@ -5958,12 +5980,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E334" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>694</v>
       </c>
@@ -5980,12 +6002,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E336" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>698</v>
       </c>
@@ -6002,12 +6024,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E338" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>702</v>
       </c>
@@ -6024,12 +6046,12 @@
         <v>689</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E340" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="58.3" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>706</v>
       </c>
@@ -6046,22 +6068,22 @@
         <v>713</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E342" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E343" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E344" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E345" t="s">
         <v>712</v>
       </c>

--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8633AF-E221-4015-B69F-DD4CD8B83C88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885FEF3-221B-4A77-BADC-7E164D1F5AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="717">
   <si>
     <t>#</t>
   </si>
@@ -2183,6 +2182,9 @@
   </si>
   <si>
     <t>completed on 31.10.</t>
+  </si>
+  <si>
+    <t>completed on 01.11.</t>
   </si>
 </sst>
 </file>
@@ -2539,8 +2541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D501-7ECA-49F7-8778-74DA8B793EE3}">
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G143" sqref="G143"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="G359" sqref="G359"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4123,32 +4125,32 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E145" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E146" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E147" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E149" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>331</v>
       </c>
@@ -4164,13 +4166,16 @@
       <c r="F150" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G150" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E151" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>336</v>
       </c>
@@ -4186,13 +4191,16 @@
       <c r="F152" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G152" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E153" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>340</v>
       </c>
@@ -4209,12 +4217,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E155" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>345</v>
       </c>
@@ -4231,12 +4239,12 @@
         <v>349</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>350</v>
       </c>
@@ -4253,12 +4261,12 @@
         <v>354</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E159" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>355</v>
       </c>

--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885FEF3-221B-4A77-BADC-7E164D1F5AC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBB8E7D-E963-46A6-B64C-AA17CDC6EDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="718">
   <si>
     <t>#</t>
   </si>
@@ -2185,6 +2185,9 @@
   </si>
   <si>
     <t>completed on 01.11.</t>
+  </si>
+  <si>
+    <t>completed on 07-Nov</t>
   </si>
 </sst>
 </file>
@@ -2541,8 +2544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D501-7ECA-49F7-8778-74DA8B793EE3}">
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="G359" sqref="G359"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4423,7 +4426,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>385</v>
       </c>
@@ -4439,13 +4442,16 @@
       <c r="F177" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E178" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>389</v>
       </c>
@@ -4461,13 +4467,16 @@
       <c r="F179" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G179" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E180" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>394</v>
       </c>
@@ -4484,12 +4493,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>398</v>
       </c>
@@ -4506,12 +4515,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E184" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>403</v>
       </c>
@@ -4528,12 +4537,12 @@
         <v>407</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E186" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>408</v>
       </c>
@@ -4550,12 +4559,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E188" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>412</v>
       </c>
@@ -4572,12 +4581,12 @@
         <v>402</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E190" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>416</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E192" t="s">
         <v>419</v>
       </c>

--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBB8E7D-E963-46A6-B64C-AA17CDC6EDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2088E5E-E6F3-4B1E-A7E5-7B92CE971432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="719">
   <si>
     <t>#</t>
   </si>
@@ -2188,6 +2188,9 @@
   </si>
   <si>
     <t>completed on 07-Nov</t>
+  </si>
+  <si>
+    <t>skipped</t>
   </si>
 </sst>
 </file>
@@ -2544,8 +2547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D501-7ECA-49F7-8778-74DA8B793EE3}">
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="G204" sqref="G204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4492,6 +4495,9 @@
       <c r="F181" t="s">
         <v>253</v>
       </c>
+      <c r="G181" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E182" t="s">
@@ -4514,6 +4520,9 @@
       <c r="F183" t="s">
         <v>402</v>
       </c>
+      <c r="G183" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E184" t="s">
@@ -4536,6 +4545,9 @@
       <c r="F185" t="s">
         <v>407</v>
       </c>
+      <c r="G185" t="s">
+        <v>718</v>
+      </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E186" t="s">
@@ -4558,6 +4570,9 @@
       <c r="F187" t="s">
         <v>402</v>
       </c>
+      <c r="G187" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E188" t="s">
@@ -4580,6 +4595,9 @@
       <c r="F189" t="s">
         <v>402</v>
       </c>
+      <c r="G189" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E190" t="s">
@@ -4602,13 +4620,16 @@
       <c r="F191" t="s">
         <v>402</v>
       </c>
+      <c r="G191" t="s">
+        <v>717</v>
+      </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E192" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>420</v>
       </c>
@@ -4624,13 +4645,16 @@
       <c r="F193" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E194" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>424</v>
       </c>
@@ -4646,13 +4670,16 @@
       <c r="F195" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E196" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>428</v>
       </c>
@@ -4668,13 +4695,16 @@
       <c r="F197" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E198" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>432</v>
       </c>
@@ -4690,28 +4720,31 @@
       <c r="F199" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G199" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E200" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E201" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E202" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E203" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>439</v>
       </c>
@@ -4728,12 +4761,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E205" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>444</v>
       </c>
@@ -4750,12 +4783,12 @@
         <v>443</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E207" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>448</v>
       </c>

--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2088E5E-E6F3-4B1E-A7E5-7B92CE971432}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC4B48-E463-4E8E-9D69-66710C00AABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83BC4B48-E463-4E8E-9D69-66710C00AABC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00977978-5610-4A42-85BD-658E7A244D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="719">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="720">
   <si>
     <t>#</t>
   </si>
@@ -2192,6 +2191,9 @@
   </si>
   <si>
     <t>skipped</t>
+  </si>
+  <si>
+    <t>completed on 10-Nov</t>
   </si>
 </sst>
 </file>
@@ -2548,8 +2550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D501-7ECA-49F7-8778-74DA8B793EE3}">
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="E200" sqref="E200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4761,6 +4763,9 @@
       <c r="F204" t="s">
         <v>443</v>
       </c>
+      <c r="G204" t="s">
+        <v>719</v>
+      </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E205" t="s">

--- a/Exercise_Sequence.xlsx
+++ b/Exercise_Sequence.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brind\Documents\HtDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00977978-5610-4A42-85BD-658E7A244D5A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2F6B8A-CDAF-4FCE-BA6C-6C7C11A63EC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{22016CAA-A539-451C-8737-08F3A468224D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$345</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="722">
   <si>
     <t>#</t>
   </si>
@@ -2194,6 +2197,12 @@
   </si>
   <si>
     <t>completed on 10-Nov</t>
+  </si>
+  <si>
+    <t>completed on 15-Nov</t>
+  </si>
+  <si>
+    <t>Completed?</t>
   </si>
 </sst>
 </file>
@@ -2550,8 +2559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC50D501-7ECA-49F7-8778-74DA8B793EE3}">
   <dimension ref="A1:G345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="E200" sqref="E200"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="G255" sqref="G255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2562,7 +2571,7 @@
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2581,13 +2590,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2604,12 +2616,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2626,12 +2638,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2648,12 +2660,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2670,12 +2682,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -2692,12 +2704,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2714,12 +2726,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>42</v>
       </c>
@@ -4788,6 +4800,9 @@
       <c r="F206" t="s">
         <v>443</v>
       </c>
+      <c r="G206" t="s">
+        <v>720</v>
+      </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E207" t="s">
@@ -4810,13 +4825,16 @@
       <c r="F208" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G208" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E209" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -4832,13 +4850,16 @@
       <c r="F210" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G210" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E211" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>457</v>
       </c>
@@ -4854,13 +4875,16 @@
       <c r="F212" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G212" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E213" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>461</v>
       </c>
@@ -4876,13 +4900,16 @@
       <c r="F214" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G214" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E215" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>465</v>
       </c>
@@ -4898,13 +4925,16 @@
       <c r="F216" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G216" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E217" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>469</v>
       </c>
@@ -4920,13 +4950,16 @@
       <c r="F218" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G218" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E219" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>473</v>
       </c>
@@ -4942,23 +4975,26 @@
       <c r="F220" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E221" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E222" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E223" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>479</v>
       </c>
@@ -4974,13 +5010,16 @@
       <c r="F224" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G224" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E225" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>483</v>
       </c>
@@ -4996,13 +5035,16 @@
       <c r="F226" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G226" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E227" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>488</v>
       </c>
@@ -5018,13 +5060,16 @@
       <c r="F228" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E229" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>491</v>
       </c>
@@ -5040,13 +5085,16 @@
       <c r="F230" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E231" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>496</v>
       </c>
@@ -5062,13 +5110,16 @@
       <c r="F232" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E233" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>501</v>
       </c>
@@ -5084,18 +5135,21 @@
       <c r="F234" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G234" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E235" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E236" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>507</v>
       </c>
@@ -5111,13 +5165,16 @@
       <c r="F237" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G237" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E238" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>512</v>
       </c>
@@ -5133,13 +5190,16 @@
       <c r="F239" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G239" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E240" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>517</v>
       </c>
@@ -5155,13 +5215,16 @@
       <c r="F241" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G241" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E242" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>521</v>
       </c>
@@ -5177,13 +5240,16 @@
       <c r="F243" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G243" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E244" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>525</v>
       </c>
@@ -5199,13 +5265,16 @@
       <c r="F245" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G245" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E246" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>530</v>
       </c>
@@ -5221,13 +5290,16 @@
       <c r="F247" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G247" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E248" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>534</v>
       </c>
@@ -5243,13 +5315,16 @@
       <c r="F249" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G249" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E250" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>538</v>
       </c>
@@ -5265,13 +5340,16 @@
       <c r="F251" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G251" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E252" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>542</v>
       </c>
@@ -5287,13 +5365,16 @@
       <c r="F253" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G253" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E254" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>546</v>
       </c>
@@ -5310,7 +5391,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E256" t="s">
         <v>549</v>
       </c>
@@ -6145,6 +6226,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G345" xr:uid="{247EAE87-F012-43B6-BA12-4FAC32F352C5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
